--- a/src/main/resources/EmployeeMonthlyVertec-sample.xlsx
+++ b/src/main/resources/EmployeeMonthlyVertec-sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoah\Desktop\jira\Ex1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoah\Desktop\jira\Ex1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6AE144-F734-43B6-AAC8-7B7E407C2207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BA24AE-E7E6-45FE-B68D-7E1CC3540CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2955" windowWidth="21600" windowHeight="11385" tabRatio="850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2700" windowWidth="21600" windowHeight="11385" tabRatio="850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imputations" sheetId="14" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
   <si>
     <t>Code</t>
   </si>
@@ -184,9 +184,6 @@
     <t>DEF</t>
   </si>
   <si>
-    <t>ABY</t>
-  </si>
-  <si>
     <t>AB2</t>
   </si>
   <si>
@@ -233,6 +230,18 @@
   </si>
   <si>
     <t>18020</t>
+  </si>
+  <si>
+    <t>PLM</t>
+  </si>
+  <si>
+    <t>Project Z comment</t>
+  </si>
+  <si>
+    <t>19020</t>
+  </si>
+  <si>
+    <t>HPT</t>
   </si>
 </sst>
 </file>
@@ -997,11 +1006,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1077,31 +1086,31 @@
         <v>44565</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L7" si="0">IF(G2,D2,0)</f>
@@ -1120,7 +1129,7 @@
         <v>dummy project name, dummy sub name</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1131,31 +1140,31 @@
         <v>44655</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
         <v>57</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
@@ -1174,42 +1183,42 @@
         <v>dummy project name, dummy sub name</v>
       </c>
       <c r="P3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2">
         <v>44685</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
         <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
         <v>57</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
         <v>58</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
@@ -1228,12 +1237,12 @@
         <v>dummy project name, dummy sub name</v>
       </c>
       <c r="P4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2">
         <v>44716</v>
@@ -1245,10 +1254,10 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1257,13 +1266,13 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
@@ -1282,12 +1291,12 @@
         <v>dummy project name, dummy sub name</v>
       </c>
       <c r="P5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2">
         <v>44746</v>
@@ -1299,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -1311,13 +1320,13 @@
         <v>44</v>
       </c>
       <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
@@ -1336,7 +1345,7 @@
         <v>dummy project name, dummy sub name</v>
       </c>
       <c r="P6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1353,10 +1362,10 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1365,13 +1374,13 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" t="s">
         <v>58</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
@@ -1390,7 +1399,61 @@
         <v>dummy project name, dummy sub name</v>
       </c>
       <c r="P7" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44760</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8" si="3">IF(G8,D8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8" si="4">(IF(G8,0,D8))</f>
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <f>IF(SUMPRODUCT(($A$2:$A8=A8)*($H$2:$H8=H8))&gt;1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" ref="O8" si="5">LEFT(CONCATENATE(K8,", ",I8),70)</f>
+        <v>dummy project name, dummy sub name</v>
+      </c>
+      <c r="P8" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/EmployeeMonthlyVertec-sample.xlsx
+++ b/src/main/resources/EmployeeMonthlyVertec-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoah\Desktop\jira\Ex1\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huy\elca\Ex1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BA24AE-E7E6-45FE-B68D-7E1CC3540CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAB1A3E-2ADB-430D-8D84-2CA8D4EEDCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2700" windowWidth="21600" windowHeight="11385" tabRatio="850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="13680" tabRatio="850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imputations" sheetId="14" r:id="rId1"/>
@@ -238,10 +238,10 @@
     <t>Project Z comment</t>
   </si>
   <si>
-    <t>19020</t>
-  </si>
-  <si>
     <t>HPT</t>
+  </si>
+  <si>
+    <t>19021</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1010,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2">
         <v>44685</v>
@@ -1431,7 +1431,7 @@
         <v>57</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K8" t="s">
         <v>58</v>

--- a/src/main/resources/EmployeeMonthlyVertec-sample.xlsx
+++ b/src/main/resources/EmployeeMonthlyVertec-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huy\elca\Ex1\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoah\Desktop\jira\Ex1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAB1A3E-2ADB-430D-8D84-2CA8D4EEDCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFED3EC7-E68E-4213-8BDE-EB4FB8E9347B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="13680" tabRatio="850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="2685" windowWidth="21600" windowHeight="11385" tabRatio="850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imputations" sheetId="14" r:id="rId1"/>
@@ -1008,9 +1008,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1025,7 @@
     <col min="10" max="10" width="9.140625" style="6"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">

--- a/src/main/resources/EmployeeMonthlyVertec-sample.xlsx
+++ b/src/main/resources/EmployeeMonthlyVertec-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoah\Desktop\jira\Ex1\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huy\elca\Ex1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFED3EC7-E68E-4213-8BDE-EB4FB8E9347B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F68A0C1-71AC-403A-A379-F06D774D8F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2685" windowWidth="21600" windowHeight="11385" tabRatio="850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9090" yWindow="3765" windowWidth="21600" windowHeight="13680" tabRatio="850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imputations" sheetId="14" r:id="rId1"/>
@@ -232,16 +232,16 @@
     <t>18020</t>
   </si>
   <si>
-    <t>PLM</t>
-  </si>
-  <si>
     <t>Project Z comment</t>
   </si>
   <si>
-    <t>HPT</t>
-  </si>
-  <si>
     <t>19021</t>
+  </si>
+  <si>
+    <t>DE1</t>
+  </si>
+  <si>
+    <t>XY1</t>
   </si>
 </sst>
 </file>
@@ -1008,9 +1008,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2">
         <v>44685</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>44760</v>
@@ -1416,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1431,7 +1431,7 @@
         <v>57</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
         <v>58</v>
